--- a/media/xls/new.xlsx
+++ b/media/xls/new.xlsx
@@ -429,13 +429,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
@@ -521,29 +521,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>45085</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Муродов Улугбек</t>
+          <t>Тоштемиров Файзулло</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>URUG'LIK</t>
+          <t>DMK-1</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -553,183 +553,28 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>60-Q256KA</t>
+          <t>953</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>Рустамов Рустам</t>
+          <t>asdfsdfsdf</t>
         </is>
       </c>
       <c r="J2" s="2" t="n">
-        <v>9200</v>
+        <v>6204</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>3600</v>
+        <v>3620</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>5600</v>
-      </c>
-      <c r="M2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>45085</v>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Зохидов Фарходбек</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>DMK-BIRJA</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>КАМАЗ</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>60-Q256KA</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>Рустамов Рустам</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>7890</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>3620</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>4270</v>
-      </c>
-      <c r="M3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>45085</v>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Тоштемиров Файзулло</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>DMK-1</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>БОШКА</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>953</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>Рустамов Рустам</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>8920</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>6201</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>2719</v>
-      </c>
-      <c r="M4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>45085</v>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Камолов Сойибжон</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>ZAVOD</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>КАМАЗ</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>60-Q256KA</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>Рустамов Рустам</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>6320</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>2420</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>3900</v>
-      </c>
-      <c r="M5" s="2" t="n"/>
+        <v>2584</v>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>nazorat1</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/media/xls/new.xlsx
+++ b/media/xls/new.xlsx
@@ -16,21 +16,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,17 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,154 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="30" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Сана</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Бригада №</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Ф И О</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Омбор</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юк хати № </t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Транспорт маркаси</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Транспорт №</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Юк ташувчи</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Брутто</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Тара</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Нетто</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Юк хати жунатувчи</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>45085</v>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Тоштемиров Файзулло</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>DMK-1</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>КАМАЗ</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>953</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>asdfsdfsdf</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>6204</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>3620</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>2584</v>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>nazorat1</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>